--- a/_docs/Cronograma ADSO_228118_V1.xlsx
+++ b/_docs/Cronograma ADSO_228118_V1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28612"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D23EA7-2856-4FAD-9F36-81C0EEC2FADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D07DE9-0843-4603-B24D-4E7B578AC0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{2EF96F3D-4256-48DD-8CAA-143A5EBF2E06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2EF96F3D-4256-48DD-8CAA-143A5EBF2E06}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja de Control" sheetId="2" r:id="rId1"/>
@@ -3417,9 +3417,6 @@
     <t>Comunica los resultados de la investigación según criterios de presentación de informes.</t>
   </si>
   <si>
-    <t>EDWIN ALBEIRO RAMOS VILLAMIL</t>
-  </si>
-  <si>
     <t>COMPETENCIA</t>
   </si>
   <si>
@@ -3630,6 +3627,9 @@
   </si>
   <si>
     <t>Cristian Camilo Cifuentes</t>
+  </si>
+  <si>
+    <t>Cristian Camilo Cifuentes Gaona</t>
   </si>
 </sst>
 </file>
@@ -5825,24 +5825,61 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5852,7 +5889,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5863,83 +5899,23 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5949,16 +5925,40 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="83" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="21" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="44" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="85" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="83" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5973,14 +5973,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF0070C0"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6207,15 +6207,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
+          <xdr:colOff>95250</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>68580</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>31</xdr:col>
-          <xdr:colOff>121920</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>68580</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6809,144 +6809,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:D17"/>
+    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="28" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="35.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" style="2" customWidth="1"/>
     <col min="7" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" style="2" customWidth="1"/>
     <col min="13" max="256" width="12" style="2" customWidth="1"/>
-    <col min="257" max="257" width="12.5546875" style="2" customWidth="1"/>
-    <col min="258" max="16384" width="11.44140625" style="2"/>
+    <col min="257" max="257" width="12.5703125" style="2" customWidth="1"/>
+    <col min="258" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
     </row>
     <row r="3" spans="2:6" ht="30">
-      <c r="B3" s="212" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="212"/>
+      <c r="B3" s="198" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
     </row>
     <row r="4" spans="2:6" ht="30">
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-    </row>
-    <row r="5" spans="2:6" ht="14.4" thickBot="1">
-      <c r="B5" s="213"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
-    </row>
-    <row r="6" spans="2:6" ht="14.4" thickTop="1">
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="198"/>
+      <c r="F4" s="198"/>
+    </row>
+    <row r="5" spans="2:6" ht="17.25" thickBot="1">
+      <c r="B5" s="199"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+    </row>
+    <row r="6" spans="2:6" ht="17.25" thickTop="1">
       <c r="F6" s="3"/>
     </row>
     <row r="8" spans="2:6" ht="30">
-      <c r="B8" s="200" t="s">
+      <c r="B8" s="227" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
-    </row>
-    <row r="10" spans="2:6" ht="14.4" thickBot="1"/>
-    <row r="11" spans="2:6" ht="18.600000000000001" thickTop="1">
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+    </row>
+    <row r="10" spans="2:6" ht="17.25" thickBot="1"/>
+    <row r="11" spans="2:6" ht="18.75" thickTop="1">
       <c r="B11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="221" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D11" s="222"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="223"/>
+      <c r="C11" s="208" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D11" s="209"/>
+      <c r="E11" s="209"/>
+      <c r="F11" s="210"/>
     </row>
     <row r="12" spans="2:6" ht="18">
       <c r="B12" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="198" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D12" s="224"/>
-      <c r="E12" s="224"/>
-      <c r="F12" s="225"/>
-    </row>
-    <row r="13" spans="2:6" ht="18.600000000000001" thickBot="1">
+      <c r="C12" s="211" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D12" s="212"/>
+      <c r="E12" s="212"/>
+      <c r="F12" s="213"/>
+    </row>
+    <row r="13" spans="2:6" ht="18.75" thickBot="1">
       <c r="B13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="198" t="s">
+      <c r="C13" s="211" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="224"/>
-      <c r="E13" s="226"/>
-      <c r="F13" s="225"/>
-    </row>
-    <row r="14" spans="2:6" ht="19.95" customHeight="1" thickTop="1">
+      <c r="D13" s="212"/>
+      <c r="E13" s="214"/>
+      <c r="F13" s="213"/>
+    </row>
+    <row r="14" spans="2:6" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="B14" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="198" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D14" s="199"/>
+      <c r="C14" s="211" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D14" s="226"/>
       <c r="E14" s="28" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="19.95" customHeight="1">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="19.899999999999999" customHeight="1">
       <c r="B15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="227" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D15" s="228"/>
+      <c r="C15" s="215" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D15" s="216"/>
       <c r="E15" s="29" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="19.95" customHeight="1" thickBot="1">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="B16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="229" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D16" s="230"/>
+      <c r="C16" s="217" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D16" s="218"/>
       <c r="E16" s="30" t="s">
         <v>10</v>
       </c>
@@ -6954,13 +6954,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="16.2" thickTop="1">
+    <row r="17" spans="2:16" ht="17.25" thickTop="1">
       <c r="B17" s="4"/>
-      <c r="C17" s="218"/>
-      <c r="D17" s="218"/>
-    </row>
-    <row r="18" spans="2:16" ht="19.95" customHeight="1"/>
-    <row r="19" spans="2:16" ht="19.95" customHeight="1">
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
+    </row>
+    <row r="18" spans="2:16" ht="19.899999999999999" customHeight="1"/>
+    <row r="19" spans="2:16" ht="19.899999999999999" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="19.95" customHeight="1" thickBot="1"/>
+    <row r="20" spans="2:16" ht="19.899999999999999" customHeight="1" thickBot="1"/>
     <row r="21" spans="2:16" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="B21" s="15" t="s">
         <v>13</v>
@@ -6976,27 +6976,27 @@
       <c r="C21" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="219" t="s">
+      <c r="D21" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="219"/>
+      <c r="E21" s="205"/>
       <c r="F21" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="19.95" customHeight="1" thickTop="1">
+    <row r="22" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="B22" s="18" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="220" t="s">
-        <v>1132</v>
-      </c>
-      <c r="E22" s="220"/>
+      <c r="D22" s="206" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E22" s="206"/>
       <c r="F22" s="20" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="23" spans="2:16" ht="25.5" customHeight="1">
@@ -7051,93 +7051,93 @@
     <row r="30" spans="2:16" ht="25.5" customHeight="1" thickBot="1">
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
-      <c r="D30" s="208"/>
-      <c r="E30" s="208"/>
+      <c r="D30" s="222"/>
+      <c r="E30" s="222"/>
       <c r="F30" s="26"/>
     </row>
-    <row r="31" spans="2:16" ht="19.95" customHeight="1" thickTop="1"/>
-    <row r="32" spans="2:16" ht="19.95" customHeight="1">
+    <row r="31" spans="2:16" ht="19.899999999999999" customHeight="1" thickTop="1"/>
+    <row r="32" spans="2:16" ht="19.899999999999999" customHeight="1">
       <c r="B32" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="30" customHeight="1" thickBot="1"/>
-    <row r="34" spans="1:13" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B34" s="209" t="s">
+    <row r="34" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B34" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="210"/>
-      <c r="D34" s="210"/>
-      <c r="E34" s="210"/>
-      <c r="F34" s="211"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="225"/>
     </row>
     <row r="35" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1" thickTop="1">
-      <c r="B35" s="215" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C35" s="216"/>
-      <c r="D35" s="216"/>
-      <c r="E35" s="216"/>
-      <c r="F35" s="217"/>
+      <c r="B35" s="201" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C35" s="202"/>
+      <c r="D35" s="202"/>
+      <c r="E35" s="202"/>
+      <c r="F35" s="203"/>
     </row>
     <row r="36" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B36" s="201"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="202"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="203"/>
+      <c r="B36" s="228"/>
+      <c r="C36" s="229"/>
+      <c r="D36" s="229"/>
+      <c r="E36" s="229"/>
+      <c r="F36" s="230"/>
       <c r="J36" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B37" s="201"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="202"/>
-      <c r="E37" s="202"/>
-      <c r="F37" s="203"/>
+      <c r="B37" s="228"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="229"/>
+      <c r="E37" s="229"/>
+      <c r="F37" s="230"/>
     </row>
     <row r="38" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B38" s="201"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="202"/>
-      <c r="E38" s="202"/>
-      <c r="F38" s="203"/>
+      <c r="B38" s="228"/>
+      <c r="C38" s="229"/>
+      <c r="D38" s="229"/>
+      <c r="E38" s="229"/>
+      <c r="F38" s="230"/>
     </row>
     <row r="39" spans="1:13" s="7" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B39" s="204"/>
-      <c r="C39" s="205"/>
-      <c r="D39" s="205"/>
-      <c r="E39" s="205"/>
-      <c r="F39" s="206"/>
-    </row>
-    <row r="40" spans="1:13" ht="19.95" customHeight="1" thickTop="1">
+      <c r="B39" s="219"/>
+      <c r="C39" s="220"/>
+      <c r="D39" s="220"/>
+      <c r="E39" s="220"/>
+      <c r="F39" s="221"/>
+    </row>
+    <row r="40" spans="1:13" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="1:13" ht="19.95" customHeight="1">
+    <row r="41" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:13" ht="19.95" customHeight="1">
+    <row r="42" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="B42" s="7"/>
     </row>
-    <row r="43" spans="1:13" ht="19.95" customHeight="1">
+    <row r="43" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" ht="19.95" customHeight="1">
+    <row r="44" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A44" s="7"/>
       <c r="C44" s="7"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" ht="19.95" customHeight="1">
+    <row r="45" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -7145,7 +7145,7 @@
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" ht="19.95" customHeight="1">
+    <row r="46" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
@@ -7153,113 +7153,113 @@
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" ht="19.95" customHeight="1">
+    <row r="47" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="1:13" ht="19.95" customHeight="1">
+    <row r="48" spans="1:13" ht="19.899999999999999" customHeight="1">
       <c r="B48" s="7"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="2:12" ht="19.95" customHeight="1">
+    <row r="49" spans="2:12" ht="19.899999999999999" customHeight="1">
       <c r="B49" s="9"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="2:12" ht="19.95" customHeight="1">
+    <row r="50" spans="2:12" ht="19.899999999999999" customHeight="1">
       <c r="B50" s="10"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="2:12" ht="19.95" customHeight="1">
+    <row r="51" spans="2:12" ht="19.899999999999999" customHeight="1">
       <c r="F51" s="9"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="2:12" ht="19.95" customHeight="1">
+    <row r="52" spans="2:12" ht="19.899999999999999" customHeight="1">
       <c r="B52" s="10"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="2:12" ht="19.95" customHeight="1">
+    <row r="53" spans="2:12" ht="19.899999999999999" customHeight="1">
       <c r="F53" s="8"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="2:12" ht="19.95" customHeight="1">
+    <row r="54" spans="2:12" ht="19.899999999999999" customHeight="1">
       <c r="B54" s="10"/>
       <c r="F54" s="7"/>
       <c r="G54" s="8"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="2:12" ht="19.95" customHeight="1">
+    <row r="55" spans="2:12" ht="19.899999999999999" customHeight="1">
       <c r="F55" s="7"/>
       <c r="G55" s="8"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="2:12" ht="19.95" customHeight="1">
+    <row r="56" spans="2:12" ht="19.899999999999999" customHeight="1">
       <c r="B56" s="11"/>
       <c r="F56" s="7"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="2:12" ht="19.95" customHeight="1">
+    <row r="57" spans="2:12" ht="19.899999999999999" customHeight="1">
       <c r="F57" s="9"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="2:12" ht="19.95" customHeight="1">
+    <row r="58" spans="2:12" ht="19.899999999999999" customHeight="1">
       <c r="B58" s="11"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="2:12" ht="19.95" customHeight="1">
+    <row r="59" spans="2:12" ht="19.899999999999999" customHeight="1">
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="2:12" ht="19.95" customHeight="1">
+    <row r="60" spans="2:12" ht="19.899999999999999" customHeight="1">
       <c r="B60" s="11"/>
     </row>
-    <row r="61" spans="2:12" ht="19.95" customHeight="1"/>
-    <row r="62" spans="2:12" ht="19.95" customHeight="1">
+    <row r="61" spans="2:12" ht="19.899999999999999" customHeight="1"/>
+    <row r="62" spans="2:12" ht="19.899999999999999" customHeight="1">
       <c r="B62" s="11"/>
     </row>
-    <row r="63" spans="2:12" ht="19.95" customHeight="1"/>
-    <row r="64" spans="2:12" ht="19.95" customHeight="1">
+    <row r="63" spans="2:12" ht="19.899999999999999" customHeight="1"/>
+    <row r="64" spans="2:12" ht="19.899999999999999" customHeight="1">
       <c r="B64" s="11"/>
     </row>
-    <row r="65" spans="2:2" ht="19.95" customHeight="1"/>
-    <row r="66" spans="2:2" ht="19.95" customHeight="1">
+    <row r="65" spans="2:2" ht="19.899999999999999" customHeight="1"/>
+    <row r="66" spans="2:2" ht="19.899999999999999" customHeight="1">
       <c r="B66" s="11"/>
     </row>
-    <row r="67" spans="2:2" ht="19.95" customHeight="1"/>
-    <row r="68" spans="2:2" ht="19.95" customHeight="1">
+    <row r="67" spans="2:2" ht="19.899999999999999" customHeight="1"/>
+    <row r="68" spans="2:2" ht="19.899999999999999" customHeight="1">
       <c r="B68" s="11"/>
     </row>
-    <row r="69" spans="2:2" ht="19.95" customHeight="1"/>
-    <row r="70" spans="2:2" ht="19.95" customHeight="1">
+    <row r="69" spans="2:2" ht="19.899999999999999" customHeight="1"/>
+    <row r="70" spans="2:2" ht="19.899999999999999" customHeight="1">
       <c r="B70" s="11"/>
     </row>
-    <row r="71" spans="2:2" ht="19.95" customHeight="1"/>
-    <row r="72" spans="2:2" ht="19.95" customHeight="1">
+    <row r="71" spans="2:2" ht="19.899999999999999" customHeight="1"/>
+    <row r="72" spans="2:2" ht="19.899999999999999" customHeight="1">
       <c r="B72" s="11"/>
     </row>
-    <row r="73" spans="2:2" ht="19.95" customHeight="1"/>
-    <row r="74" spans="2:2" ht="14.4">
+    <row r="73" spans="2:2" ht="19.899999999999999" customHeight="1"/>
+    <row r="74" spans="2:2">
       <c r="B74" s="11"/>
     </row>
-    <row r="76" spans="2:2" ht="14.4">
+    <row r="76" spans="2:2">
       <c r="B76" s="11"/>
     </row>
-    <row r="78" spans="2:2" ht="14.4">
+    <row r="78" spans="2:2">
       <c r="B78" s="11"/>
     </row>
-    <row r="80" spans="2:2" ht="14.4">
+    <row r="80" spans="2:2">
       <c r="B80" s="11"/>
     </row>
     <row r="81" spans="2:3">
@@ -7270,6 +7270,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B34:F34"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -7286,18 +7298,6 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -7317,16 +7317,16 @@
       <selection pane="bottomRight" activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="112" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" style="113" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="114" customWidth="1"/>
-    <col min="4" max="6" width="50.6640625" style="113" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="114"/>
+    <col min="1" max="1" width="12.7109375" style="112" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="113" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="114" customWidth="1"/>
+    <col min="4" max="6" width="50.7109375" style="113" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="114"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="103" customFormat="1" ht="24.9" customHeight="1">
+    <row r="1" spans="1:6" s="103" customFormat="1" ht="24.95" customHeight="1">
       <c r="A1" s="130" t="s">
         <v>88</v>
       </c>
@@ -7360,7 +7360,7 @@
       <c r="E2" s="99"/>
       <c r="F2" s="104"/>
     </row>
-    <row r="3" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="3" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A3" s="89">
         <v>240201530</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="5" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A5" s="96">
         <v>240201530</v>
       </c>
@@ -7526,7 +7526,7 @@
       <c r="E11" s="95"/>
       <c r="F11" s="95"/>
     </row>
-    <row r="12" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="12" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A12" s="96">
         <v>240201530</v>
       </c>
@@ -7542,7 +7542,7 @@
       <c r="E12" s="95"/>
       <c r="F12" s="95"/>
     </row>
-    <row r="13" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="13" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A13" s="96">
         <v>240201530</v>
       </c>
@@ -7558,7 +7558,7 @@
       <c r="E13" s="95"/>
       <c r="F13" s="95"/>
     </row>
-    <row r="14" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="14" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A14" s="96">
         <v>240201530</v>
       </c>
@@ -7728,7 +7728,7 @@
       <c r="E23" s="95"/>
       <c r="F23" s="95"/>
     </row>
-    <row r="24" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="24" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A24" s="96">
         <v>220501092</v>
       </c>
@@ -7758,7 +7758,7 @@
       <c r="E25" s="94"/>
       <c r="F25" s="94"/>
     </row>
-    <row r="26" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="26" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A26" s="89">
         <v>220501092</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="28" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A28" s="96">
         <v>220501092</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="87" customFormat="1" ht="55.2">
+    <row r="29" spans="1:6" s="87" customFormat="1" ht="51">
       <c r="A29" s="96">
         <v>220501092</v>
       </c>
@@ -8098,7 +8098,7 @@
       <c r="E44" s="94"/>
       <c r="F44" s="94"/>
     </row>
-    <row r="45" spans="1:6" s="126" customFormat="1" ht="31.2">
+    <row r="45" spans="1:6" s="126" customFormat="1" ht="31.5">
       <c r="A45" s="121">
         <v>220501093</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>147</v>
       </c>
       <c r="F47" s="107" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
@@ -8163,7 +8163,7 @@
         <v>54</v>
       </c>
       <c r="D48" s="107" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E48" s="107" t="s">
         <v>148</v>
@@ -8199,7 +8199,7 @@
         <v>54</v>
       </c>
       <c r="D50" s="107" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E50" s="110"/>
       <c r="F50" s="110"/>
@@ -8238,7 +8238,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="87" customFormat="1" ht="69">
+    <row r="53" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A53" s="96">
         <v>220501093</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>158</v>
       </c>
       <c r="F53" s="88" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
@@ -8387,10 +8387,10 @@
         <v>173</v>
       </c>
       <c r="F60" s="88" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" s="87" customFormat="1" ht="69">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="87" customFormat="1" ht="51">
       <c r="A61" s="96">
         <v>220501093</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>174</v>
       </c>
       <c r="F61" s="88" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="62" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
@@ -8445,7 +8445,7 @@
         <v>176</v>
       </c>
       <c r="F63" s="88" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
@@ -8463,7 +8463,7 @@
         <v>177</v>
       </c>
       <c r="F64" s="88" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="87" customFormat="1" ht="30" customHeight="1">
@@ -8636,7 +8636,7 @@
       <c r="E74" s="124"/>
       <c r="F74" s="125"/>
     </row>
-    <row r="75" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="75" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A75" s="89">
         <v>220501094</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="78" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A78" s="96">
         <v>220501094</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="87" customFormat="1" ht="55.2">
+    <row r="95" spans="1:6" s="87" customFormat="1" ht="51">
       <c r="A95" s="96">
         <v>220501095</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="98" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A98" s="96">
         <v>220501095</v>
       </c>
@@ -9246,7 +9246,7 @@
       <c r="E108" s="94"/>
       <c r="F108" s="94"/>
     </row>
-    <row r="109" spans="1:6" s="87" customFormat="1" ht="55.2">
+    <row r="109" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A109" s="89">
         <v>220501095</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="118" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A118" s="96">
         <v>220501095</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="130" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A130" s="96">
         <v>220501096</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="87" customFormat="1" ht="55.2">
+    <row r="136" spans="1:6" s="87" customFormat="1" ht="51">
       <c r="A136" s="96">
         <v>220501096</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="139" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A139" s="96">
         <v>220501096</v>
       </c>
@@ -9930,7 +9930,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="147" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A147" s="96">
         <v>220501096</v>
       </c>
@@ -10004,7 +10004,7 @@
       <c r="E150" s="95"/>
       <c r="F150" s="95"/>
     </row>
-    <row r="151" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="151" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A151" s="96">
         <v>220501096</v>
       </c>
@@ -10396,7 +10396,7 @@
       <c r="E173" s="94"/>
       <c r="F173" s="94"/>
     </row>
-    <row r="174" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="174" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A174" s="89">
         <v>220501097</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="176" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="176" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A176" s="96">
         <v>220501097</v>
       </c>
@@ -10606,7 +10606,7 @@
       <c r="E185" s="94"/>
       <c r="F185" s="94"/>
     </row>
-    <row r="186" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="186" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A186" s="89">
         <v>220501097</v>
       </c>
@@ -10770,7 +10770,7 @@
       <c r="E194" s="94"/>
       <c r="F194" s="94"/>
     </row>
-    <row r="195" spans="1:6" s="126" customFormat="1" ht="31.2">
+    <row r="195" spans="1:6" s="126" customFormat="1" ht="31.5">
       <c r="A195" s="121">
         <v>220501098</v>
       </c>
@@ -10884,7 +10884,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="87" customFormat="1" ht="55.2">
+    <row r="201" spans="1:6" s="87" customFormat="1" ht="51">
       <c r="A201" s="96">
         <v>220501098</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="205" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A205" s="96">
         <v>220501098</v>
       </c>
@@ -11400,7 +11400,7 @@
       <c r="E232" s="124"/>
       <c r="F232" s="125"/>
     </row>
-    <row r="233" spans="1:6" ht="41.4">
+    <row r="233" spans="1:6" ht="38.25">
       <c r="A233" s="105">
         <v>220501046</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="82.8">
+    <row r="238" spans="1:6" ht="63.75">
       <c r="A238" s="108">
         <v>220501046</v>
       </c>
@@ -11512,7 +11512,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="96.6">
+    <row r="239" spans="1:6" ht="76.5">
       <c r="A239" s="108">
         <v>220501046</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="41.4">
+    <row r="242" spans="1:6" ht="38.25">
       <c r="A242" s="108">
         <v>220501046</v>
       </c>
@@ -11588,7 +11588,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="41.4">
+    <row r="244" spans="1:6" ht="38.25">
       <c r="A244" s="108">
         <v>220501046</v>
       </c>
@@ -11648,7 +11648,7 @@
       <c r="E248" s="110"/>
       <c r="F248" s="110"/>
     </row>
-    <row r="249" spans="1:6" ht="96.6">
+    <row r="249" spans="1:6" ht="89.25">
       <c r="A249" s="108">
         <v>220501046</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>3</v>
       </c>
       <c r="C256" s="107" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D256" s="107" t="s">
         <v>1087</v>
@@ -11776,7 +11776,7 @@
         <v>4</v>
       </c>
       <c r="C257" s="107" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D257" s="107" t="s">
         <v>1088</v>
@@ -12128,7 +12128,7 @@
       <c r="E280" s="124"/>
       <c r="F280" s="125"/>
     </row>
-    <row r="281" spans="1:6" ht="41.4">
+    <row r="281" spans="1:6" ht="38.25">
       <c r="A281" s="105">
         <v>240201525</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="41.4">
+    <row r="306" spans="1:6" ht="38.25">
       <c r="A306" s="105">
         <v>240201524</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="41.4">
+    <row r="308" spans="1:6" ht="38.25">
       <c r="A308" s="105">
         <v>240201524</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="41.4">
+    <row r="309" spans="1:6" ht="38.25">
       <c r="A309" s="127">
         <v>240201524</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="41.4">
+    <row r="313" spans="1:6" ht="38.25">
       <c r="A313" s="127">
         <v>240201524</v>
       </c>
@@ -12836,7 +12836,7 @@
       <c r="E328" s="124"/>
       <c r="F328" s="125"/>
     </row>
-    <row r="329" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="329" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A329" s="105">
         <v>240202501</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="331" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="331" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A331" s="105">
         <v>240202501</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="332" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="332" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A332" s="105">
         <v>240202501</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="333" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="333" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A333" s="105">
         <v>240202501</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="334" spans="1:6" s="87" customFormat="1" ht="55.2">
+    <row r="334" spans="1:6" s="87" customFormat="1" ht="51">
       <c r="A334" s="105">
         <v>240202501</v>
       </c>
@@ -12956,7 +12956,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="335" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="335" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A335" s="108">
         <v>240202501</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="339" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="339" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A339" s="108">
         <v>240202501</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="340" spans="1:6" s="87" customFormat="1" ht="55.2">
+    <row r="340" spans="1:6" s="87" customFormat="1" ht="51">
       <c r="A340" s="108">
         <v>240202501</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="341" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="341" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A341" s="108">
         <v>240202501</v>
       </c>
@@ -13252,7 +13252,7 @@
       </c>
       <c r="F354" s="110"/>
     </row>
-    <row r="355" spans="1:6" s="87" customFormat="1" ht="41.4">
+    <row r="355" spans="1:6" s="87" customFormat="1" ht="38.25">
       <c r="A355" s="108">
         <v>240202501</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="41.4">
+    <row r="404" spans="1:6" ht="38.25">
       <c r="A404" s="127">
         <v>230101507</v>
       </c>
@@ -14070,7 +14070,7 @@
       <c r="E417" s="124"/>
       <c r="F417" s="125"/>
     </row>
-    <row r="418" spans="1:6" ht="41.4">
+    <row r="418" spans="1:6" ht="38.25">
       <c r="A418" s="105">
         <v>220601501</v>
       </c>
@@ -14090,7 +14090,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="55.2">
+    <row r="419" spans="1:6" ht="51">
       <c r="A419" s="105">
         <v>220601501</v>
       </c>
@@ -14110,7 +14110,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="41.4">
+    <row r="420" spans="1:6" ht="38.25">
       <c r="A420" s="105">
         <v>220601501</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="55.2">
+    <row r="421" spans="1:6" ht="51">
       <c r="A421" s="105">
         <v>220601501</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="41.4">
+    <row r="422" spans="1:6" ht="38.25">
       <c r="A422" s="127">
         <v>220601501</v>
       </c>
@@ -14182,7 +14182,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="41.4">
+    <row r="424" spans="1:6" ht="38.25">
       <c r="A424" s="127">
         <v>220601501</v>
       </c>
@@ -14198,7 +14198,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="69">
+    <row r="425" spans="1:6" ht="63.75">
       <c r="A425" s="127">
         <v>220601501</v>
       </c>
@@ -14212,7 +14212,7 @@
       </c>
       <c r="F425" s="110"/>
     </row>
-    <row r="426" spans="1:6" ht="41.4">
+    <row r="426" spans="1:6" ht="38.25">
       <c r="A426" s="127">
         <v>220601501</v>
       </c>
@@ -14282,7 +14282,7 @@
       </c>
       <c r="F430" s="110"/>
     </row>
-    <row r="431" spans="1:6" ht="69">
+    <row r="431" spans="1:6" ht="63.75">
       <c r="A431" s="127">
         <v>220601501</v>
       </c>
@@ -14390,7 +14390,7 @@
       <c r="E439" s="94"/>
       <c r="F439" s="94"/>
     </row>
-    <row r="440" spans="1:6" s="126" customFormat="1" ht="31.2">
+    <row r="440" spans="1:6" s="126" customFormat="1" ht="31.5">
       <c r="A440" s="121">
         <v>240201526</v>
       </c>
@@ -15166,7 +15166,7 @@
       <c r="E492" s="128"/>
       <c r="F492" s="110"/>
     </row>
-    <row r="493" spans="1:6" ht="69">
+    <row r="493" spans="1:6" ht="63.75">
       <c r="A493" s="127">
         <v>240201526</v>
       </c>
@@ -15178,7 +15178,7 @@
       <c r="E493" s="110"/>
       <c r="F493" s="110"/>
     </row>
-    <row r="494" spans="1:6" ht="55.2">
+    <row r="494" spans="1:6" ht="51">
       <c r="A494" s="127">
         <v>240201526</v>
       </c>
@@ -15226,7 +15226,7 @@
       <c r="E497" s="124"/>
       <c r="F497" s="125"/>
     </row>
-    <row r="498" spans="1:6" ht="41.4">
+    <row r="498" spans="1:6" ht="38.25">
       <c r="A498" s="105">
         <v>210201501</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="41.4">
+    <row r="500" spans="1:6" ht="38.25">
       <c r="A500" s="105">
         <v>210201501</v>
       </c>
@@ -15286,7 +15286,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="41.4">
+    <row r="501" spans="1:6" ht="38.25">
       <c r="A501" s="105">
         <v>210201501</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="41.4">
+    <row r="502" spans="1:6" ht="38.25">
       <c r="A502" s="127">
         <v>210201501</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="55.2">
+    <row r="506" spans="1:6" ht="51">
       <c r="A506" s="127">
         <v>210201501</v>
       </c>
@@ -15382,7 +15382,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="55.2">
+    <row r="507" spans="1:6" ht="51">
       <c r="A507" s="127">
         <v>210201501</v>
       </c>
@@ -15588,7 +15588,7 @@
       <c r="E523" s="110"/>
       <c r="F523" s="110"/>
     </row>
-    <row r="524" spans="1:6" ht="41.4">
+    <row r="524" spans="1:6" ht="38.25">
       <c r="A524" s="127">
         <v>210201501</v>
       </c>
@@ -15804,320 +15804,320 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BR60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="11" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="41" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="41" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="41" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" style="31" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="12.6640625" style="41" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="41" customWidth="1"/>
-    <col min="12" max="13" width="5.6640625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="1.88671875" style="31" hidden="1" customWidth="1"/>
-    <col min="15" max="70" width="2.44140625" style="31" customWidth="1"/>
-    <col min="71" max="16384" width="9.109375" style="31"/>
+    <col min="1" max="1" width="6.7109375" style="44" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="41" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="41" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="41" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" style="45" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="41" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="31" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" style="41" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="41" customWidth="1"/>
+    <col min="12" max="13" width="5.7109375" style="31" customWidth="1"/>
+    <col min="14" max="14" width="1.85546875" style="31" hidden="1" customWidth="1"/>
+    <col min="15" max="70" width="2.42578125" style="31" customWidth="1"/>
+    <col min="71" max="16384" width="9.140625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="231"/>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-      <c r="N1" s="231"/>
-      <c r="O1" s="231"/>
-      <c r="P1" s="231"/>
-      <c r="Q1" s="231"/>
-      <c r="R1" s="231"/>
-      <c r="S1" s="231"/>
-      <c r="T1" s="231"/>
-      <c r="U1" s="231"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
-      <c r="Y1" s="231"/>
-      <c r="Z1" s="231"/>
-      <c r="AA1" s="231"/>
-      <c r="AB1" s="231"/>
-      <c r="AC1" s="231"/>
-      <c r="AD1" s="231"/>
-      <c r="AE1" s="231"/>
-      <c r="AF1" s="231"/>
-      <c r="AG1" s="231"/>
-      <c r="AH1" s="231"/>
-      <c r="AI1" s="231"/>
-      <c r="AJ1" s="231"/>
-      <c r="AK1" s="231"/>
-      <c r="AL1" s="231"/>
-      <c r="AM1" s="231"/>
-      <c r="AN1" s="231"/>
-      <c r="AO1" s="231"/>
-      <c r="AP1" s="231"/>
-      <c r="AQ1" s="231"/>
-      <c r="AR1" s="231"/>
-      <c r="AS1" s="231"/>
-      <c r="AT1" s="231"/>
-      <c r="AU1" s="231"/>
-      <c r="AV1" s="231"/>
-      <c r="AW1" s="231"/>
-      <c r="AX1" s="231"/>
-      <c r="AY1" s="231"/>
-      <c r="AZ1" s="231"/>
-      <c r="BA1" s="231"/>
-      <c r="BB1" s="231"/>
-      <c r="BC1" s="231"/>
-      <c r="BD1" s="231"/>
-      <c r="BE1" s="231"/>
-      <c r="BF1" s="231"/>
-      <c r="BG1" s="231"/>
-      <c r="BH1" s="231"/>
-      <c r="BI1" s="231"/>
-      <c r="BJ1" s="231"/>
-      <c r="BK1" s="231"/>
-      <c r="BL1" s="231"/>
-      <c r="BM1" s="231"/>
-      <c r="BN1" s="231"/>
-      <c r="BO1" s="231"/>
-      <c r="BP1" s="231"/>
-      <c r="BQ1" s="231"/>
-      <c r="BR1" s="231"/>
-    </row>
-    <row r="2" spans="1:70" s="46" customFormat="1" ht="20.399999999999999">
-      <c r="A2" s="232" t="s">
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="236"/>
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="236"/>
+      <c r="AB1" s="236"/>
+      <c r="AC1" s="236"/>
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="236"/>
+      <c r="AH1" s="236"/>
+      <c r="AI1" s="236"/>
+      <c r="AJ1" s="236"/>
+      <c r="AK1" s="236"/>
+      <c r="AL1" s="236"/>
+      <c r="AM1" s="236"/>
+      <c r="AN1" s="236"/>
+      <c r="AO1" s="236"/>
+      <c r="AP1" s="236"/>
+      <c r="AQ1" s="236"/>
+      <c r="AR1" s="236"/>
+      <c r="AS1" s="236"/>
+      <c r="AT1" s="236"/>
+      <c r="AU1" s="236"/>
+      <c r="AV1" s="236"/>
+      <c r="AW1" s="236"/>
+      <c r="AX1" s="236"/>
+      <c r="AY1" s="236"/>
+      <c r="AZ1" s="236"/>
+      <c r="BA1" s="236"/>
+      <c r="BB1" s="236"/>
+      <c r="BC1" s="236"/>
+      <c r="BD1" s="236"/>
+      <c r="BE1" s="236"/>
+      <c r="BF1" s="236"/>
+      <c r="BG1" s="236"/>
+      <c r="BH1" s="236"/>
+      <c r="BI1" s="236"/>
+      <c r="BJ1" s="236"/>
+      <c r="BK1" s="236"/>
+      <c r="BL1" s="236"/>
+      <c r="BM1" s="236"/>
+      <c r="BN1" s="236"/>
+      <c r="BO1" s="236"/>
+      <c r="BP1" s="236"/>
+      <c r="BQ1" s="236"/>
+      <c r="BR1" s="236"/>
+    </row>
+    <row r="2" spans="1:70" s="46" customFormat="1" ht="20.25">
+      <c r="A2" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="231"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
-      <c r="Q2" s="232"/>
-      <c r="R2" s="232"/>
-      <c r="S2" s="232"/>
-      <c r="T2" s="232"/>
-      <c r="U2" s="232"/>
-      <c r="V2" s="232"/>
-      <c r="W2" s="232"/>
-      <c r="X2" s="232"/>
-      <c r="Y2" s="232"/>
-      <c r="Z2" s="232"/>
-      <c r="AA2" s="232"/>
-      <c r="AB2" s="232"/>
-      <c r="AC2" s="232"/>
-      <c r="AD2" s="232"/>
-      <c r="AE2" s="232"/>
-      <c r="AF2" s="232"/>
-      <c r="AG2" s="232"/>
-      <c r="AH2" s="232"/>
-      <c r="AI2" s="232"/>
-      <c r="AJ2" s="232"/>
-      <c r="AK2" s="232"/>
-      <c r="AL2" s="232"/>
-      <c r="AM2" s="232"/>
-      <c r="AN2" s="232"/>
-      <c r="AO2" s="232"/>
-      <c r="AP2" s="232"/>
-      <c r="AQ2" s="232"/>
-      <c r="AR2" s="232"/>
-      <c r="AS2" s="232"/>
-      <c r="AT2" s="232"/>
-      <c r="AU2" s="232"/>
-      <c r="AV2" s="232"/>
-      <c r="AW2" s="232"/>
-      <c r="AX2" s="232"/>
-      <c r="AY2" s="232"/>
-      <c r="AZ2" s="232"/>
-      <c r="BA2" s="232"/>
-      <c r="BB2" s="232"/>
-      <c r="BC2" s="232"/>
-      <c r="BD2" s="232"/>
-      <c r="BE2" s="232"/>
-      <c r="BF2" s="232"/>
-      <c r="BG2" s="232"/>
-      <c r="BH2" s="232"/>
-      <c r="BI2" s="232"/>
-      <c r="BJ2" s="232"/>
-      <c r="BK2" s="232"/>
-      <c r="BL2" s="232"/>
-      <c r="BM2" s="232"/>
-      <c r="BN2" s="232"/>
-      <c r="BO2" s="232"/>
-      <c r="BP2" s="232"/>
-      <c r="BQ2" s="232"/>
-      <c r="BR2" s="233"/>
-    </row>
-    <row r="3" spans="1:70" s="46" customFormat="1" ht="20.399999999999999">
-      <c r="A3" s="232" t="s">
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+      <c r="Q2" s="237"/>
+      <c r="R2" s="237"/>
+      <c r="S2" s="237"/>
+      <c r="T2" s="237"/>
+      <c r="U2" s="237"/>
+      <c r="V2" s="237"/>
+      <c r="W2" s="237"/>
+      <c r="X2" s="237"/>
+      <c r="Y2" s="237"/>
+      <c r="Z2" s="237"/>
+      <c r="AA2" s="237"/>
+      <c r="AB2" s="237"/>
+      <c r="AC2" s="237"/>
+      <c r="AD2" s="237"/>
+      <c r="AE2" s="237"/>
+      <c r="AF2" s="237"/>
+      <c r="AG2" s="237"/>
+      <c r="AH2" s="237"/>
+      <c r="AI2" s="237"/>
+      <c r="AJ2" s="237"/>
+      <c r="AK2" s="237"/>
+      <c r="AL2" s="237"/>
+      <c r="AM2" s="237"/>
+      <c r="AN2" s="237"/>
+      <c r="AO2" s="237"/>
+      <c r="AP2" s="237"/>
+      <c r="AQ2" s="237"/>
+      <c r="AR2" s="237"/>
+      <c r="AS2" s="237"/>
+      <c r="AT2" s="237"/>
+      <c r="AU2" s="237"/>
+      <c r="AV2" s="237"/>
+      <c r="AW2" s="237"/>
+      <c r="AX2" s="237"/>
+      <c r="AY2" s="237"/>
+      <c r="AZ2" s="237"/>
+      <c r="BA2" s="237"/>
+      <c r="BB2" s="237"/>
+      <c r="BC2" s="237"/>
+      <c r="BD2" s="237"/>
+      <c r="BE2" s="237"/>
+      <c r="BF2" s="237"/>
+      <c r="BG2" s="237"/>
+      <c r="BH2" s="237"/>
+      <c r="BI2" s="237"/>
+      <c r="BJ2" s="237"/>
+      <c r="BK2" s="237"/>
+      <c r="BL2" s="237"/>
+      <c r="BM2" s="237"/>
+      <c r="BN2" s="237"/>
+      <c r="BO2" s="237"/>
+      <c r="BP2" s="237"/>
+      <c r="BQ2" s="237"/>
+      <c r="BR2" s="238"/>
+    </row>
+    <row r="3" spans="1:70" s="46" customFormat="1" ht="20.25">
+      <c r="A3" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
-      <c r="Q3" s="232"/>
-      <c r="R3" s="232"/>
-      <c r="S3" s="232"/>
-      <c r="T3" s="232"/>
-      <c r="U3" s="232"/>
-      <c r="V3" s="232"/>
-      <c r="W3" s="232"/>
-      <c r="X3" s="232"/>
-      <c r="Y3" s="232"/>
-      <c r="Z3" s="232"/>
-      <c r="AA3" s="232"/>
-      <c r="AB3" s="232"/>
-      <c r="AC3" s="232"/>
-      <c r="AD3" s="232"/>
-      <c r="AE3" s="232"/>
-      <c r="AF3" s="232"/>
-      <c r="AG3" s="232"/>
-      <c r="AH3" s="232"/>
-      <c r="AI3" s="232"/>
-      <c r="AJ3" s="232"/>
-      <c r="AK3" s="232"/>
-      <c r="AL3" s="232"/>
-      <c r="AM3" s="232"/>
-      <c r="AN3" s="232"/>
-      <c r="AO3" s="232"/>
-      <c r="AP3" s="232"/>
-      <c r="AQ3" s="232"/>
-      <c r="AR3" s="232"/>
-      <c r="AS3" s="232"/>
-      <c r="AT3" s="232"/>
-      <c r="AU3" s="232"/>
-      <c r="AV3" s="232"/>
-      <c r="AW3" s="232"/>
-      <c r="AX3" s="232"/>
-      <c r="AY3" s="232"/>
-      <c r="AZ3" s="232"/>
-      <c r="BA3" s="232"/>
-      <c r="BB3" s="232"/>
-      <c r="BC3" s="232"/>
-      <c r="BD3" s="232"/>
-      <c r="BE3" s="232"/>
-      <c r="BF3" s="232"/>
-      <c r="BG3" s="232"/>
-      <c r="BH3" s="232"/>
-      <c r="BI3" s="232"/>
-      <c r="BJ3" s="232"/>
-      <c r="BK3" s="232"/>
-      <c r="BL3" s="232"/>
-      <c r="BM3" s="232"/>
-      <c r="BN3" s="232"/>
-      <c r="BO3" s="232"/>
-      <c r="BP3" s="232"/>
-      <c r="BQ3" s="232"/>
-      <c r="BR3" s="233"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
+      <c r="Q3" s="237"/>
+      <c r="R3" s="237"/>
+      <c r="S3" s="237"/>
+      <c r="T3" s="237"/>
+      <c r="U3" s="237"/>
+      <c r="V3" s="237"/>
+      <c r="W3" s="237"/>
+      <c r="X3" s="237"/>
+      <c r="Y3" s="237"/>
+      <c r="Z3" s="237"/>
+      <c r="AA3" s="237"/>
+      <c r="AB3" s="237"/>
+      <c r="AC3" s="237"/>
+      <c r="AD3" s="237"/>
+      <c r="AE3" s="237"/>
+      <c r="AF3" s="237"/>
+      <c r="AG3" s="237"/>
+      <c r="AH3" s="237"/>
+      <c r="AI3" s="237"/>
+      <c r="AJ3" s="237"/>
+      <c r="AK3" s="237"/>
+      <c r="AL3" s="237"/>
+      <c r="AM3" s="237"/>
+      <c r="AN3" s="237"/>
+      <c r="AO3" s="237"/>
+      <c r="AP3" s="237"/>
+      <c r="AQ3" s="237"/>
+      <c r="AR3" s="237"/>
+      <c r="AS3" s="237"/>
+      <c r="AT3" s="237"/>
+      <c r="AU3" s="237"/>
+      <c r="AV3" s="237"/>
+      <c r="AW3" s="237"/>
+      <c r="AX3" s="237"/>
+      <c r="AY3" s="237"/>
+      <c r="AZ3" s="237"/>
+      <c r="BA3" s="237"/>
+      <c r="BB3" s="237"/>
+      <c r="BC3" s="237"/>
+      <c r="BD3" s="237"/>
+      <c r="BE3" s="237"/>
+      <c r="BF3" s="237"/>
+      <c r="BG3" s="237"/>
+      <c r="BH3" s="237"/>
+      <c r="BI3" s="237"/>
+      <c r="BJ3" s="237"/>
+      <c r="BK3" s="237"/>
+      <c r="BL3" s="237"/>
+      <c r="BM3" s="237"/>
+      <c r="BN3" s="237"/>
+      <c r="BO3" s="237"/>
+      <c r="BP3" s="237"/>
+      <c r="BQ3" s="237"/>
+      <c r="BR3" s="238"/>
     </row>
     <row r="4" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A4" s="234"/>
-      <c r="B4" s="234"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="234"/>
-      <c r="F4" s="234"/>
-      <c r="G4" s="234"/>
-      <c r="H4" s="234"/>
-      <c r="I4" s="234"/>
-      <c r="J4" s="234"/>
-      <c r="K4" s="234"/>
-      <c r="L4" s="234"/>
-      <c r="M4" s="234"/>
-      <c r="N4" s="234"/>
-      <c r="O4" s="234"/>
-      <c r="P4" s="234"/>
-      <c r="Q4" s="234"/>
-      <c r="R4" s="234"/>
-      <c r="S4" s="234"/>
-      <c r="T4" s="234"/>
-      <c r="U4" s="234"/>
-      <c r="V4" s="234"/>
-      <c r="W4" s="234"/>
-      <c r="X4" s="234"/>
-      <c r="Y4" s="234"/>
-      <c r="Z4" s="234"/>
-      <c r="AA4" s="234"/>
-      <c r="AB4" s="234"/>
-      <c r="AC4" s="234"/>
-      <c r="AD4" s="234"/>
-      <c r="AE4" s="234"/>
-      <c r="AF4" s="234"/>
-      <c r="AG4" s="234"/>
-      <c r="AH4" s="234"/>
-      <c r="AI4" s="234"/>
-      <c r="AJ4" s="234"/>
-      <c r="AK4" s="234"/>
-      <c r="AL4" s="234"/>
-      <c r="AM4" s="234"/>
-      <c r="AN4" s="234"/>
-      <c r="AO4" s="234"/>
-      <c r="AP4" s="234"/>
-      <c r="AQ4" s="234"/>
-      <c r="AR4" s="234"/>
-      <c r="AS4" s="234"/>
-      <c r="AT4" s="234"/>
-      <c r="AU4" s="234"/>
-      <c r="AV4" s="234"/>
-      <c r="AW4" s="234"/>
-      <c r="AX4" s="234"/>
-      <c r="AY4" s="234"/>
-      <c r="AZ4" s="234"/>
-      <c r="BA4" s="234"/>
-      <c r="BB4" s="234"/>
-      <c r="BC4" s="234"/>
-      <c r="BD4" s="234"/>
-      <c r="BE4" s="234"/>
-      <c r="BF4" s="234"/>
-      <c r="BG4" s="234"/>
-      <c r="BH4" s="234"/>
-      <c r="BI4" s="234"/>
-      <c r="BJ4" s="234"/>
-      <c r="BK4" s="234"/>
-      <c r="BL4" s="234"/>
-      <c r="BM4" s="234"/>
-      <c r="BN4" s="234"/>
-      <c r="BO4" s="234"/>
-      <c r="BP4" s="234"/>
-      <c r="BQ4" s="234"/>
-      <c r="BR4" s="235"/>
+      <c r="A4" s="239"/>
+      <c r="B4" s="239"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
+      <c r="H4" s="239"/>
+      <c r="I4" s="239"/>
+      <c r="J4" s="239"/>
+      <c r="K4" s="239"/>
+      <c r="L4" s="239"/>
+      <c r="M4" s="239"/>
+      <c r="N4" s="239"/>
+      <c r="O4" s="239"/>
+      <c r="P4" s="239"/>
+      <c r="Q4" s="239"/>
+      <c r="R4" s="239"/>
+      <c r="S4" s="239"/>
+      <c r="T4" s="239"/>
+      <c r="U4" s="239"/>
+      <c r="V4" s="239"/>
+      <c r="W4" s="239"/>
+      <c r="X4" s="239"/>
+      <c r="Y4" s="239"/>
+      <c r="Z4" s="239"/>
+      <c r="AA4" s="239"/>
+      <c r="AB4" s="239"/>
+      <c r="AC4" s="239"/>
+      <c r="AD4" s="239"/>
+      <c r="AE4" s="239"/>
+      <c r="AF4" s="239"/>
+      <c r="AG4" s="239"/>
+      <c r="AH4" s="239"/>
+      <c r="AI4" s="239"/>
+      <c r="AJ4" s="239"/>
+      <c r="AK4" s="239"/>
+      <c r="AL4" s="239"/>
+      <c r="AM4" s="239"/>
+      <c r="AN4" s="239"/>
+      <c r="AO4" s="239"/>
+      <c r="AP4" s="239"/>
+      <c r="AQ4" s="239"/>
+      <c r="AR4" s="239"/>
+      <c r="AS4" s="239"/>
+      <c r="AT4" s="239"/>
+      <c r="AU4" s="239"/>
+      <c r="AV4" s="239"/>
+      <c r="AW4" s="239"/>
+      <c r="AX4" s="239"/>
+      <c r="AY4" s="239"/>
+      <c r="AZ4" s="239"/>
+      <c r="BA4" s="239"/>
+      <c r="BB4" s="239"/>
+      <c r="BC4" s="239"/>
+      <c r="BD4" s="239"/>
+      <c r="BE4" s="239"/>
+      <c r="BF4" s="239"/>
+      <c r="BG4" s="239"/>
+      <c r="BH4" s="239"/>
+      <c r="BI4" s="239"/>
+      <c r="BJ4" s="239"/>
+      <c r="BK4" s="239"/>
+      <c r="BL4" s="239"/>
+      <c r="BM4" s="239"/>
+      <c r="BN4" s="239"/>
+      <c r="BO4" s="239"/>
+      <c r="BP4" s="239"/>
+      <c r="BQ4" s="239"/>
+      <c r="BR4" s="240"/>
     </row>
     <row r="5" spans="1:70" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" thickTop="1">
       <c r="A5" s="169"/>
@@ -16232,11 +16232,11 @@
         <v>26</v>
       </c>
       <c r="C8" s="182"/>
-      <c r="D8" s="245">
-        <v>45040</v>
-      </c>
-      <c r="E8" s="245"/>
-      <c r="F8" s="245"/>
+      <c r="D8" s="235">
+        <v>45580</v>
+      </c>
+      <c r="E8" s="235"/>
+      <c r="F8" s="235"/>
       <c r="G8" s="42"/>
       <c r="H8" s="42"/>
       <c r="K8" s="196" t="s">
@@ -16245,407 +16245,407 @@
       <c r="L8" s="32">
         <v>1</v>
       </c>
-      <c r="O8" s="240" t="str">
+      <c r="O8" s="232" t="str">
         <f>"Semana "&amp;(O10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 1</v>
       </c>
-      <c r="P8" s="241"/>
-      <c r="Q8" s="241"/>
-      <c r="R8" s="241"/>
-      <c r="S8" s="241"/>
-      <c r="T8" s="241"/>
-      <c r="U8" s="242"/>
-      <c r="V8" s="240" t="str">
+      <c r="P8" s="233"/>
+      <c r="Q8" s="233"/>
+      <c r="R8" s="233"/>
+      <c r="S8" s="233"/>
+      <c r="T8" s="233"/>
+      <c r="U8" s="234"/>
+      <c r="V8" s="232" t="str">
         <f>"Semana "&amp;(V10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 2</v>
       </c>
-      <c r="W8" s="241"/>
-      <c r="X8" s="241"/>
-      <c r="Y8" s="241"/>
-      <c r="Z8" s="241"/>
-      <c r="AA8" s="241"/>
-      <c r="AB8" s="242"/>
-      <c r="AC8" s="240" t="str">
+      <c r="W8" s="233"/>
+      <c r="X8" s="233"/>
+      <c r="Y8" s="233"/>
+      <c r="Z8" s="233"/>
+      <c r="AA8" s="233"/>
+      <c r="AB8" s="234"/>
+      <c r="AC8" s="232" t="str">
         <f>"Semana "&amp;(AC10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 3</v>
       </c>
-      <c r="AD8" s="241"/>
-      <c r="AE8" s="241"/>
-      <c r="AF8" s="241"/>
-      <c r="AG8" s="241"/>
-      <c r="AH8" s="241"/>
-      <c r="AI8" s="242"/>
-      <c r="AJ8" s="240" t="str">
+      <c r="AD8" s="233"/>
+      <c r="AE8" s="233"/>
+      <c r="AF8" s="233"/>
+      <c r="AG8" s="233"/>
+      <c r="AH8" s="233"/>
+      <c r="AI8" s="234"/>
+      <c r="AJ8" s="232" t="str">
         <f>"Semana "&amp;(AJ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 4</v>
       </c>
-      <c r="AK8" s="241"/>
-      <c r="AL8" s="241"/>
-      <c r="AM8" s="241"/>
-      <c r="AN8" s="241"/>
-      <c r="AO8" s="241"/>
-      <c r="AP8" s="242"/>
-      <c r="AQ8" s="240" t="str">
+      <c r="AK8" s="233"/>
+      <c r="AL8" s="233"/>
+      <c r="AM8" s="233"/>
+      <c r="AN8" s="233"/>
+      <c r="AO8" s="233"/>
+      <c r="AP8" s="234"/>
+      <c r="AQ8" s="232" t="str">
         <f>"Semana "&amp;(AQ10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 5</v>
       </c>
-      <c r="AR8" s="241"/>
-      <c r="AS8" s="241"/>
-      <c r="AT8" s="241"/>
-      <c r="AU8" s="241"/>
-      <c r="AV8" s="241"/>
-      <c r="AW8" s="242"/>
-      <c r="AX8" s="240" t="str">
+      <c r="AR8" s="233"/>
+      <c r="AS8" s="233"/>
+      <c r="AT8" s="233"/>
+      <c r="AU8" s="233"/>
+      <c r="AV8" s="233"/>
+      <c r="AW8" s="234"/>
+      <c r="AX8" s="232" t="str">
         <f>"Semana "&amp;(AX10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 6</v>
       </c>
-      <c r="AY8" s="241"/>
-      <c r="AZ8" s="241"/>
-      <c r="BA8" s="241"/>
-      <c r="BB8" s="241"/>
-      <c r="BC8" s="241"/>
-      <c r="BD8" s="242"/>
-      <c r="BE8" s="240" t="str">
+      <c r="AY8" s="233"/>
+      <c r="AZ8" s="233"/>
+      <c r="BA8" s="233"/>
+      <c r="BB8" s="233"/>
+      <c r="BC8" s="233"/>
+      <c r="BD8" s="234"/>
+      <c r="BE8" s="232" t="str">
         <f>"Semana "&amp;(BE10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 7</v>
       </c>
-      <c r="BF8" s="241"/>
-      <c r="BG8" s="241"/>
-      <c r="BH8" s="241"/>
-      <c r="BI8" s="241"/>
-      <c r="BJ8" s="241"/>
-      <c r="BK8" s="242"/>
-      <c r="BL8" s="240" t="str">
+      <c r="BF8" s="233"/>
+      <c r="BG8" s="233"/>
+      <c r="BH8" s="233"/>
+      <c r="BI8" s="233"/>
+      <c r="BJ8" s="233"/>
+      <c r="BK8" s="234"/>
+      <c r="BL8" s="232" t="str">
         <f>"Semana "&amp;(BL10-($D$8-WEEKDAY($D$8,1)+2))/7+1</f>
         <v>Semana 8</v>
       </c>
-      <c r="BM8" s="241"/>
-      <c r="BN8" s="241"/>
-      <c r="BO8" s="241"/>
-      <c r="BP8" s="241"/>
-      <c r="BQ8" s="241"/>
-      <c r="BR8" s="243"/>
+      <c r="BM8" s="233"/>
+      <c r="BN8" s="233"/>
+      <c r="BO8" s="233"/>
+      <c r="BP8" s="233"/>
+      <c r="BQ8" s="233"/>
+      <c r="BR8" s="245"/>
     </row>
     <row r="9" spans="1:70" ht="17.25" customHeight="1">
       <c r="B9" s="181" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="182"/>
-      <c r="D9" s="244" t="s">
-        <v>1113</v>
-      </c>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
+      <c r="D9" s="231" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E9" s="231"/>
+      <c r="F9" s="231"/>
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
-      <c r="O9" s="236">
+      <c r="O9" s="241">
         <f>O10</f>
-        <v>45040</v>
-      </c>
-      <c r="P9" s="237"/>
-      <c r="Q9" s="237"/>
-      <c r="R9" s="237"/>
-      <c r="S9" s="237"/>
-      <c r="T9" s="237"/>
-      <c r="U9" s="238"/>
-      <c r="V9" s="236">
+        <v>45579</v>
+      </c>
+      <c r="P9" s="242"/>
+      <c r="Q9" s="242"/>
+      <c r="R9" s="242"/>
+      <c r="S9" s="242"/>
+      <c r="T9" s="242"/>
+      <c r="U9" s="243"/>
+      <c r="V9" s="241">
         <f>V10</f>
-        <v>45047</v>
-      </c>
-      <c r="W9" s="237"/>
-      <c r="X9" s="237"/>
-      <c r="Y9" s="237"/>
-      <c r="Z9" s="237"/>
-      <c r="AA9" s="237"/>
-      <c r="AB9" s="238"/>
-      <c r="AC9" s="236">
+        <v>45586</v>
+      </c>
+      <c r="W9" s="242"/>
+      <c r="X9" s="242"/>
+      <c r="Y9" s="242"/>
+      <c r="Z9" s="242"/>
+      <c r="AA9" s="242"/>
+      <c r="AB9" s="243"/>
+      <c r="AC9" s="241">
         <f>AC10</f>
-        <v>45054</v>
-      </c>
-      <c r="AD9" s="237"/>
-      <c r="AE9" s="237"/>
-      <c r="AF9" s="237"/>
-      <c r="AG9" s="237"/>
-      <c r="AH9" s="237"/>
-      <c r="AI9" s="238"/>
-      <c r="AJ9" s="236">
+        <v>45593</v>
+      </c>
+      <c r="AD9" s="242"/>
+      <c r="AE9" s="242"/>
+      <c r="AF9" s="242"/>
+      <c r="AG9" s="242"/>
+      <c r="AH9" s="242"/>
+      <c r="AI9" s="243"/>
+      <c r="AJ9" s="241">
         <f>AJ10</f>
-        <v>45061</v>
-      </c>
-      <c r="AK9" s="237"/>
-      <c r="AL9" s="237"/>
-      <c r="AM9" s="237"/>
-      <c r="AN9" s="237"/>
-      <c r="AO9" s="237"/>
-      <c r="AP9" s="238"/>
-      <c r="AQ9" s="236">
+        <v>45600</v>
+      </c>
+      <c r="AK9" s="242"/>
+      <c r="AL9" s="242"/>
+      <c r="AM9" s="242"/>
+      <c r="AN9" s="242"/>
+      <c r="AO9" s="242"/>
+      <c r="AP9" s="243"/>
+      <c r="AQ9" s="241">
         <f>AQ10</f>
-        <v>45068</v>
-      </c>
-      <c r="AR9" s="237"/>
-      <c r="AS9" s="237"/>
-      <c r="AT9" s="237"/>
-      <c r="AU9" s="237"/>
-      <c r="AV9" s="237"/>
-      <c r="AW9" s="238"/>
-      <c r="AX9" s="236">
+        <v>45607</v>
+      </c>
+      <c r="AR9" s="242"/>
+      <c r="AS9" s="242"/>
+      <c r="AT9" s="242"/>
+      <c r="AU9" s="242"/>
+      <c r="AV9" s="242"/>
+      <c r="AW9" s="243"/>
+      <c r="AX9" s="241">
         <f>AX10</f>
-        <v>45075</v>
-      </c>
-      <c r="AY9" s="237"/>
-      <c r="AZ9" s="237"/>
-      <c r="BA9" s="237"/>
-      <c r="BB9" s="237"/>
-      <c r="BC9" s="237"/>
-      <c r="BD9" s="238"/>
-      <c r="BE9" s="236">
+        <v>45614</v>
+      </c>
+      <c r="AY9" s="242"/>
+      <c r="AZ9" s="242"/>
+      <c r="BA9" s="242"/>
+      <c r="BB9" s="242"/>
+      <c r="BC9" s="242"/>
+      <c r="BD9" s="243"/>
+      <c r="BE9" s="241">
         <f>BE10</f>
-        <v>45082</v>
-      </c>
-      <c r="BF9" s="237"/>
-      <c r="BG9" s="237"/>
-      <c r="BH9" s="237"/>
-      <c r="BI9" s="237"/>
-      <c r="BJ9" s="237"/>
-      <c r="BK9" s="238"/>
-      <c r="BL9" s="236">
+        <v>45621</v>
+      </c>
+      <c r="BF9" s="242"/>
+      <c r="BG9" s="242"/>
+      <c r="BH9" s="242"/>
+      <c r="BI9" s="242"/>
+      <c r="BJ9" s="242"/>
+      <c r="BK9" s="243"/>
+      <c r="BL9" s="241">
         <f>BL10</f>
-        <v>45089</v>
-      </c>
-      <c r="BM9" s="237"/>
-      <c r="BN9" s="237"/>
-      <c r="BO9" s="237"/>
-      <c r="BP9" s="237"/>
-      <c r="BQ9" s="237"/>
-      <c r="BR9" s="239"/>
+        <v>45628</v>
+      </c>
+      <c r="BM9" s="242"/>
+      <c r="BN9" s="242"/>
+      <c r="BO9" s="242"/>
+      <c r="BP9" s="242"/>
+      <c r="BQ9" s="242"/>
+      <c r="BR9" s="244"/>
     </row>
     <row r="10" spans="1:70">
       <c r="O10" s="33">
         <f>D8-WEEKDAY(D8,1)+2+7*(L8-1)</f>
-        <v>45040</v>
+        <v>45579</v>
       </c>
       <c r="P10" s="34">
         <f t="shared" ref="P10:BR10" si="0">O10+1</f>
-        <v>45041</v>
+        <v>45580</v>
       </c>
       <c r="Q10" s="34">
         <f t="shared" si="0"/>
-        <v>45042</v>
+        <v>45581</v>
       </c>
       <c r="R10" s="34">
         <f t="shared" si="0"/>
-        <v>45043</v>
+        <v>45582</v>
       </c>
       <c r="S10" s="34">
         <f t="shared" si="0"/>
-        <v>45044</v>
+        <v>45583</v>
       </c>
       <c r="T10" s="34">
         <f t="shared" si="0"/>
-        <v>45045</v>
+        <v>45584</v>
       </c>
       <c r="U10" s="35">
         <f t="shared" si="0"/>
-        <v>45046</v>
+        <v>45585</v>
       </c>
       <c r="V10" s="33">
         <f t="shared" si="0"/>
-        <v>45047</v>
+        <v>45586</v>
       </c>
       <c r="W10" s="34">
         <f t="shared" si="0"/>
-        <v>45048</v>
+        <v>45587</v>
       </c>
       <c r="X10" s="34">
         <f t="shared" si="0"/>
-        <v>45049</v>
+        <v>45588</v>
       </c>
       <c r="Y10" s="34">
         <f t="shared" si="0"/>
-        <v>45050</v>
+        <v>45589</v>
       </c>
       <c r="Z10" s="34">
         <f t="shared" si="0"/>
-        <v>45051</v>
+        <v>45590</v>
       </c>
       <c r="AA10" s="34">
         <f t="shared" si="0"/>
-        <v>45052</v>
+        <v>45591</v>
       </c>
       <c r="AB10" s="35">
         <f t="shared" si="0"/>
-        <v>45053</v>
+        <v>45592</v>
       </c>
       <c r="AC10" s="33">
         <f t="shared" si="0"/>
-        <v>45054</v>
+        <v>45593</v>
       </c>
       <c r="AD10" s="34">
         <f t="shared" si="0"/>
-        <v>45055</v>
+        <v>45594</v>
       </c>
       <c r="AE10" s="34">
         <f t="shared" si="0"/>
-        <v>45056</v>
+        <v>45595</v>
       </c>
       <c r="AF10" s="34">
         <f t="shared" si="0"/>
-        <v>45057</v>
+        <v>45596</v>
       </c>
       <c r="AG10" s="34">
         <f t="shared" si="0"/>
-        <v>45058</v>
+        <v>45597</v>
       </c>
       <c r="AH10" s="34">
         <f t="shared" si="0"/>
-        <v>45059</v>
+        <v>45598</v>
       </c>
       <c r="AI10" s="35">
         <f t="shared" si="0"/>
-        <v>45060</v>
+        <v>45599</v>
       </c>
       <c r="AJ10" s="33">
         <f t="shared" si="0"/>
-        <v>45061</v>
+        <v>45600</v>
       </c>
       <c r="AK10" s="34">
         <f t="shared" si="0"/>
-        <v>45062</v>
+        <v>45601</v>
       </c>
       <c r="AL10" s="34">
         <f t="shared" si="0"/>
-        <v>45063</v>
+        <v>45602</v>
       </c>
       <c r="AM10" s="34">
         <f t="shared" si="0"/>
-        <v>45064</v>
+        <v>45603</v>
       </c>
       <c r="AN10" s="34">
         <f t="shared" si="0"/>
-        <v>45065</v>
+        <v>45604</v>
       </c>
       <c r="AO10" s="34">
         <f t="shared" si="0"/>
-        <v>45066</v>
+        <v>45605</v>
       </c>
       <c r="AP10" s="35">
         <f t="shared" si="0"/>
-        <v>45067</v>
+        <v>45606</v>
       </c>
       <c r="AQ10" s="33">
         <f t="shared" si="0"/>
-        <v>45068</v>
+        <v>45607</v>
       </c>
       <c r="AR10" s="34">
         <f t="shared" si="0"/>
-        <v>45069</v>
+        <v>45608</v>
       </c>
       <c r="AS10" s="34">
         <f t="shared" si="0"/>
-        <v>45070</v>
+        <v>45609</v>
       </c>
       <c r="AT10" s="34">
         <f t="shared" si="0"/>
-        <v>45071</v>
+        <v>45610</v>
       </c>
       <c r="AU10" s="34">
         <f t="shared" si="0"/>
-        <v>45072</v>
+        <v>45611</v>
       </c>
       <c r="AV10" s="34">
         <f t="shared" si="0"/>
-        <v>45073</v>
+        <v>45612</v>
       </c>
       <c r="AW10" s="35">
         <f t="shared" si="0"/>
-        <v>45074</v>
+        <v>45613</v>
       </c>
       <c r="AX10" s="33">
         <f t="shared" si="0"/>
-        <v>45075</v>
+        <v>45614</v>
       </c>
       <c r="AY10" s="34">
         <f t="shared" si="0"/>
-        <v>45076</v>
+        <v>45615</v>
       </c>
       <c r="AZ10" s="34">
         <f t="shared" si="0"/>
-        <v>45077</v>
+        <v>45616</v>
       </c>
       <c r="BA10" s="34">
         <f t="shared" si="0"/>
-        <v>45078</v>
+        <v>45617</v>
       </c>
       <c r="BB10" s="34">
         <f t="shared" si="0"/>
-        <v>45079</v>
+        <v>45618</v>
       </c>
       <c r="BC10" s="34">
         <f t="shared" si="0"/>
-        <v>45080</v>
+        <v>45619</v>
       </c>
       <c r="BD10" s="35">
         <f t="shared" si="0"/>
-        <v>45081</v>
+        <v>45620</v>
       </c>
       <c r="BE10" s="33">
         <f t="shared" si="0"/>
-        <v>45082</v>
+        <v>45621</v>
       </c>
       <c r="BF10" s="34">
         <f t="shared" si="0"/>
-        <v>45083</v>
+        <v>45622</v>
       </c>
       <c r="BG10" s="34">
         <f t="shared" si="0"/>
-        <v>45084</v>
+        <v>45623</v>
       </c>
       <c r="BH10" s="34">
         <f t="shared" si="0"/>
-        <v>45085</v>
+        <v>45624</v>
       </c>
       <c r="BI10" s="34">
         <f t="shared" si="0"/>
-        <v>45086</v>
+        <v>45625</v>
       </c>
       <c r="BJ10" s="34">
         <f t="shared" si="0"/>
-        <v>45087</v>
+        <v>45626</v>
       </c>
       <c r="BK10" s="35">
         <f t="shared" si="0"/>
-        <v>45088</v>
+        <v>45627</v>
       </c>
       <c r="BL10" s="33">
         <f t="shared" si="0"/>
-        <v>45089</v>
+        <v>45628</v>
       </c>
       <c r="BM10" s="34">
         <f t="shared" si="0"/>
-        <v>45090</v>
+        <v>45629</v>
       </c>
       <c r="BN10" s="34">
         <f t="shared" si="0"/>
-        <v>45091</v>
+        <v>45630</v>
       </c>
       <c r="BO10" s="34">
         <f t="shared" si="0"/>
-        <v>45092</v>
+        <v>45631</v>
       </c>
       <c r="BP10" s="34">
         <f t="shared" si="0"/>
-        <v>45093</v>
+        <v>45632</v>
       </c>
       <c r="BQ10" s="34">
         <f t="shared" si="0"/>
-        <v>45094</v>
+        <v>45633</v>
       </c>
       <c r="BR10" s="183">
         <f t="shared" si="0"/>
-        <v>45095</v>
-      </c>
-    </row>
-    <row r="11" spans="1:70" ht="39.9" customHeight="1" thickBot="1">
+        <v>45634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:70" ht="39.950000000000003" customHeight="1" thickBot="1">
       <c r="A11" s="37" t="s">
         <v>24</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>36</v>
       </c>
       <c r="D11" s="139" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E11" s="139" t="s">
         <v>34</v>
@@ -17000,7 +17000,7 @@
       <c r="BQ12" s="157"/>
       <c r="BR12" s="185"/>
     </row>
-    <row r="13" spans="1:70" s="87" customFormat="1" ht="55.2">
+    <row r="13" spans="1:70" s="87" customFormat="1" ht="51">
       <c r="A13" s="146" t="str">
         <f t="shared" ref="A13:A45" si="45">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -17009,7 +17009,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D13" s="58">
         <v>240201530</v>
@@ -17018,26 +17018,27 @@
         <v>1</v>
       </c>
       <c r="F13" s="59" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G13" s="142" t="s">
         <v>35</v>
       </c>
       <c r="H13" s="60"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="61" t="str">
-        <f t="shared" ref="J13:J23" si="46">IF(ISBLANK(I13)," - ",IF(K13=0,I13,I13+K13-1))</f>
-        <v xml:space="preserve"> - </v>
+      <c r="I13" s="62">
+        <v>45580</v>
+      </c>
+      <c r="J13" s="61">
+        <v>45583</v>
       </c>
       <c r="K13" s="64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" s="63">
-        <v>0</v>
-      </c>
-      <c r="M13" s="65" t="str">
-        <f t="shared" ref="M13:M23" si="47">IF(OR(J13=0,I13=0)," - ",NETWORKDAYS(I13,J13))</f>
-        <v xml:space="preserve"> - </v>
+        <v>1</v>
+      </c>
+      <c r="M13" s="65">
+        <f t="shared" ref="M13:M23" si="46">IF(OR(J13=0,I13=0)," - ",NETWORKDAYS(I13,J13))</f>
+        <v>4</v>
       </c>
       <c r="N13" s="195"/>
       <c r="O13" s="59"/>
@@ -17103,10 +17104,10 @@
         <v>1.2</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C14" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D14" s="58">
         <v>220501046</v>
@@ -17115,7 +17116,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="59" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="G14" s="142" t="s">
         <v>35</v>
@@ -17123,7 +17124,7 @@
       <c r="H14" s="60"/>
       <c r="I14" s="62"/>
       <c r="J14" s="61" t="str">
-        <f t="shared" ref="J14:J17" si="48">IF(ISBLANK(I14)," - ",IF(K14=0,I14,I14+K14-1))</f>
+        <f t="shared" ref="J14:J17" si="47">IF(ISBLANK(I14)," - ",IF(K14=0,I14,I14+K14-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="K14" s="64">
@@ -17133,7 +17134,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="65" t="str">
-        <f t="shared" ref="M14:M17" si="49">IF(OR(J14=0,I14=0)," - ",NETWORKDAYS(I14,J14))</f>
+        <f t="shared" ref="M14:M17" si="48">IF(OR(J14=0,I14=0)," - ",NETWORKDAYS(I14,J14))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="N14" s="195"/>
@@ -17203,7 +17204,7 @@
         <v>619</v>
       </c>
       <c r="C15" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D15" s="58">
         <v>220501046</v>
@@ -17212,7 +17213,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="59" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G15" s="142" t="s">
         <v>35</v>
@@ -17220,7 +17221,7 @@
       <c r="H15" s="60"/>
       <c r="I15" s="62"/>
       <c r="J15" s="61" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="K15" s="64">
@@ -17230,7 +17231,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="65" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="N15" s="195"/>
@@ -17300,7 +17301,7 @@
         <v>620</v>
       </c>
       <c r="C16" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D16" s="58">
         <v>220501046</v>
@@ -17309,7 +17310,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="59" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="G16" s="142" t="s">
         <v>35</v>
@@ -17317,7 +17318,7 @@
       <c r="H16" s="60"/>
       <c r="I16" s="62"/>
       <c r="J16" s="61" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="K16" s="64">
@@ -17327,7 +17328,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="65" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="N16" s="193"/>
@@ -17397,7 +17398,7 @@
         <v>621</v>
       </c>
       <c r="C17" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D17" s="58">
         <v>220501046</v>
@@ -17406,7 +17407,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="59" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="G17" s="143" t="s">
         <v>35</v>
@@ -17414,7 +17415,7 @@
       <c r="H17" s="132"/>
       <c r="I17" s="141"/>
       <c r="J17" s="61" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="K17" s="64">
@@ -17424,7 +17425,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="65" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="N17" s="194"/>
@@ -17494,7 +17495,7 @@
         <v>49</v>
       </c>
       <c r="C18" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D18" s="58">
         <v>220501092</v>
@@ -17503,7 +17504,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="59" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G18" s="142" t="s">
         <v>35</v>
@@ -17511,7 +17512,7 @@
       <c r="H18" s="60"/>
       <c r="I18" s="62"/>
       <c r="J18" s="61" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="J13:J23" si="49">IF(ISBLANK(I18)," - ",IF(K18=0,I18,I18+K18-1))</f>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="K18" s="64">
@@ -17521,7 +17522,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="65" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="N18" s="195"/>
@@ -17591,7 +17592,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D19" s="58">
         <v>220501092</v>
@@ -17600,7 +17601,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="59" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G19" s="142" t="s">
         <v>35</v>
@@ -17608,7 +17609,7 @@
       <c r="H19" s="60"/>
       <c r="I19" s="62"/>
       <c r="J19" s="61" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="K19" s="64">
@@ -17618,7 +17619,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="65" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="N19" s="193"/>
@@ -17688,7 +17689,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D20" s="58">
         <v>220501092</v>
@@ -17697,7 +17698,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="59" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G20" s="143" t="s">
         <v>35</v>
@@ -17705,7 +17706,7 @@
       <c r="H20" s="132"/>
       <c r="I20" s="141"/>
       <c r="J20" s="61" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="K20" s="64">
@@ -17715,7 +17716,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="65" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="N20" s="194"/>
@@ -17785,7 +17786,7 @@
         <v>52</v>
       </c>
       <c r="C21" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D21" s="58">
         <v>220501092</v>
@@ -17794,7 +17795,7 @@
         <v>4</v>
       </c>
       <c r="F21" s="59" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G21" s="142" t="s">
         <v>35</v>
@@ -17802,7 +17803,7 @@
       <c r="H21" s="60"/>
       <c r="I21" s="62"/>
       <c r="J21" s="61" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="K21" s="64">
@@ -17812,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="65" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="N21" s="193"/>
@@ -17882,7 +17883,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D22" s="58">
         <v>220501093</v>
@@ -17891,7 +17892,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="59" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G22" s="142" t="s">
         <v>35</v>
@@ -17899,7 +17900,7 @@
       <c r="H22" s="60"/>
       <c r="I22" s="62"/>
       <c r="J22" s="61" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="K22" s="64">
@@ -17909,7 +17910,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="65" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="N22" s="193"/>
@@ -17970,7 +17971,7 @@
       <c r="BQ22" s="47"/>
       <c r="BR22" s="186"/>
     </row>
-    <row r="23" spans="1:70" s="87" customFormat="1" ht="69">
+    <row r="23" spans="1:70" s="87" customFormat="1" ht="63.75">
       <c r="A23" s="146" t="str">
         <f t="shared" si="45"/>
         <v>1.11</v>
@@ -17979,7 +17980,7 @@
         <v>55</v>
       </c>
       <c r="C23" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D23" s="58">
         <v>220501093</v>
@@ -17988,7 +17989,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="59" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G23" s="142" t="s">
         <v>35</v>
@@ -17996,7 +17997,7 @@
       <c r="H23" s="60"/>
       <c r="I23" s="62"/>
       <c r="J23" s="61" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="K23" s="64">
@@ -18006,7 +18007,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="65" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v xml:space="preserve"> - </v>
       </c>
       <c r="N23" s="193"/>
@@ -18076,7 +18077,7 @@
         <v>56</v>
       </c>
       <c r="C24" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D24" s="58">
         <v>220501093</v>
@@ -18085,7 +18086,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="59" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G24" s="143" t="s">
         <v>35</v>
@@ -18173,7 +18174,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D25" s="58">
         <v>220501093</v>
@@ -18182,7 +18183,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="59" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G25" s="142" t="s">
         <v>35</v>
@@ -18270,7 +18271,7 @@
         <v>59</v>
       </c>
       <c r="C26" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D26" s="58">
         <v>220501094</v>
@@ -18279,7 +18280,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="59" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G26" s="142" t="s">
         <v>35</v>
@@ -18367,7 +18368,7 @@
         <v>60</v>
       </c>
       <c r="C27" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D27" s="58">
         <v>220501094</v>
@@ -18376,7 +18377,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="59" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G27" s="142" t="s">
         <v>35</v>
@@ -18464,7 +18465,7 @@
         <v>61</v>
       </c>
       <c r="C28" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D28" s="58">
         <v>220501094</v>
@@ -18473,7 +18474,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="59" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="G28" s="142" t="s">
         <v>35</v>
@@ -18650,7 +18651,7 @@
         <v>1083</v>
       </c>
       <c r="C30" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D30" s="58">
         <v>240201064</v>
@@ -18659,7 +18660,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="59" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G30" s="142" t="s">
         <v>35</v>
@@ -18747,7 +18748,7 @@
         <v>1084</v>
       </c>
       <c r="C31" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D31" s="58">
         <v>240201064</v>
@@ -18756,7 +18757,7 @@
         <v>2</v>
       </c>
       <c r="F31" s="59" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G31" s="142" t="s">
         <v>35</v>
@@ -18841,10 +18842,10 @@
         <v>2.3</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C32" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D32" s="58">
         <v>240201064</v>
@@ -18853,7 +18854,7 @@
         <v>3</v>
       </c>
       <c r="F32" s="59" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="G32" s="142" t="s">
         <v>35</v>
@@ -18938,10 +18939,10 @@
         <v>2.4</v>
       </c>
       <c r="B33" s="59" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C33" s="142" t="s">
         <v>1116</v>
-      </c>
-      <c r="C33" s="142" t="s">
-        <v>1117</v>
       </c>
       <c r="D33" s="58">
         <v>240201064</v>
@@ -18950,7 +18951,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="59" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G33" s="142" t="s">
         <v>35</v>
@@ -19038,7 +19039,7 @@
         <v>846</v>
       </c>
       <c r="C34" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D34" s="58">
         <v>240201517</v>
@@ -19047,7 +19048,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="59" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G34" s="142" t="s">
         <v>35</v>
@@ -19135,7 +19136,7 @@
         <v>847</v>
       </c>
       <c r="C35" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D35" s="58">
         <v>240201517</v>
@@ -19144,7 +19145,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="59" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G35" s="142" t="s">
         <v>35</v>
@@ -19232,7 +19233,7 @@
         <v>848</v>
       </c>
       <c r="C36" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D36" s="58">
         <v>240201517</v>
@@ -19241,7 +19242,7 @@
         <v>3</v>
       </c>
       <c r="F36" s="59" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G36" s="142" t="s">
         <v>35</v>
@@ -19329,7 +19330,7 @@
         <v>849</v>
       </c>
       <c r="C37" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D37" s="58">
         <v>240201517</v>
@@ -19338,7 +19339,7 @@
         <v>4</v>
       </c>
       <c r="F37" s="59" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G37" s="142" t="s">
         <v>35</v>
@@ -19426,7 +19427,7 @@
         <v>83</v>
       </c>
       <c r="C38" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D38" s="58">
         <v>220201501</v>
@@ -19435,7 +19436,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="59" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G38" s="142" t="s">
         <v>35</v>
@@ -19523,7 +19524,7 @@
         <v>84</v>
       </c>
       <c r="C39" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D39" s="58">
         <v>220201501</v>
@@ -19532,7 +19533,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="59" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G39" s="142" t="s">
         <v>35</v>
@@ -19620,7 +19621,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D40" s="58">
         <v>220201501</v>
@@ -19629,7 +19630,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="59" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G40" s="142" t="s">
         <v>35</v>
@@ -19717,7 +19718,7 @@
         <v>86</v>
       </c>
       <c r="C41" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D41" s="58">
         <v>220201501</v>
@@ -19726,7 +19727,7 @@
         <v>4</v>
       </c>
       <c r="F41" s="59" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G41" s="142" t="s">
         <v>35</v>
@@ -19805,7 +19806,7 @@
       <c r="BQ41" s="47"/>
       <c r="BR41" s="186"/>
     </row>
-    <row r="42" spans="1:70" s="87" customFormat="1" ht="41.4">
+    <row r="42" spans="1:70" s="87" customFormat="1" ht="38.25">
       <c r="A42" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.13</v>
@@ -19814,7 +19815,7 @@
         <v>63</v>
       </c>
       <c r="C42" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D42" s="58">
         <v>220501095</v>
@@ -19823,7 +19824,7 @@
         <v>1</v>
       </c>
       <c r="F42" s="59" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G42" s="142" t="s">
         <v>35</v>
@@ -19902,7 +19903,7 @@
       <c r="BQ42" s="47"/>
       <c r="BR42" s="186"/>
     </row>
-    <row r="43" spans="1:70" s="87" customFormat="1" ht="41.4">
+    <row r="43" spans="1:70" s="87" customFormat="1" ht="38.25">
       <c r="A43" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.14</v>
@@ -19911,7 +19912,7 @@
         <v>64</v>
       </c>
       <c r="C43" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D43" s="58">
         <v>220501095</v>
@@ -19920,7 +19921,7 @@
         <v>2</v>
       </c>
       <c r="F43" s="59" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G43" s="142" t="s">
         <v>35</v>
@@ -19999,7 +20000,7 @@
       <c r="BQ43" s="47"/>
       <c r="BR43" s="186"/>
     </row>
-    <row r="44" spans="1:70" s="87" customFormat="1" ht="41.4">
+    <row r="44" spans="1:70" s="87" customFormat="1" ht="38.25">
       <c r="A44" s="146" t="str">
         <f t="shared" si="45"/>
         <v>2.15</v>
@@ -20008,7 +20009,7 @@
         <v>65</v>
       </c>
       <c r="C44" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D44" s="58">
         <v>220501095</v>
@@ -20017,7 +20018,7 @@
         <v>3</v>
       </c>
       <c r="F44" s="59" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G44" s="142" t="s">
         <v>35</v>
@@ -20105,7 +20106,7 @@
         <v>66</v>
       </c>
       <c r="C45" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D45" s="58">
         <v>220501095</v>
@@ -20114,7 +20115,7 @@
         <v>4</v>
       </c>
       <c r="F45" s="59" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G45" s="142" t="s">
         <v>35</v>
@@ -20282,7 +20283,7 @@
       <c r="BQ46" s="86"/>
       <c r="BR46" s="191"/>
     </row>
-    <row r="47" spans="1:70" s="87" customFormat="1" ht="41.4">
+    <row r="47" spans="1:70" s="87" customFormat="1" ht="25.5">
       <c r="A47" s="146" t="str">
         <f t="shared" ref="A47:A51" si="57">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -20291,7 +20292,7 @@
         <v>68</v>
       </c>
       <c r="C47" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D47" s="58">
         <v>220501096</v>
@@ -20300,7 +20301,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="59" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G47" s="142" t="s">
         <v>35</v>
@@ -20388,7 +20389,7 @@
         <v>69</v>
       </c>
       <c r="C48" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D48" s="58">
         <v>220501096</v>
@@ -20397,7 +20398,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="59" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="G48" s="142" t="s">
         <v>35</v>
@@ -20485,7 +20486,7 @@
         <v>70</v>
       </c>
       <c r="C49" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D49" s="58">
         <v>220501096</v>
@@ -20494,7 +20495,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="59" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G49" s="142" t="s">
         <v>35</v>
@@ -20582,7 +20583,7 @@
         <v>71</v>
       </c>
       <c r="C50" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D50" s="58">
         <v>220501096</v>
@@ -20591,7 +20592,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="59" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G50" s="142" t="s">
         <v>35</v>
@@ -20670,7 +20671,7 @@
       <c r="BQ50" s="47"/>
       <c r="BR50" s="186"/>
     </row>
-    <row r="51" spans="1:70" s="87" customFormat="1" ht="55.8" thickBot="1">
+    <row r="51" spans="1:70" s="87" customFormat="1" ht="39" thickBot="1">
       <c r="A51" s="146" t="str">
         <f t="shared" si="57"/>
         <v>3.5</v>
@@ -20679,7 +20680,7 @@
         <v>72</v>
       </c>
       <c r="C51" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D51" s="58">
         <v>220501096</v>
@@ -20688,7 +20689,7 @@
         <v>5</v>
       </c>
       <c r="F51" s="59" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="G51" s="142" t="s">
         <v>35</v>
@@ -20856,7 +20857,7 @@
       <c r="BQ52" s="86"/>
       <c r="BR52" s="191"/>
     </row>
-    <row r="53" spans="1:70" s="87" customFormat="1" ht="41.4">
+    <row r="53" spans="1:70" s="87" customFormat="1" ht="38.25">
       <c r="A53" s="145" t="str">
         <f t="shared" ref="A53:A59" si="63">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -20865,7 +20866,7 @@
         <v>74</v>
       </c>
       <c r="C53" s="144" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D53" s="58">
         <v>220501097</v>
@@ -20874,7 +20875,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="51" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G53" s="144" t="s">
         <v>35</v>
@@ -20962,7 +20963,7 @@
         <v>75</v>
       </c>
       <c r="C54" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D54" s="58">
         <v>220501097</v>
@@ -20971,7 +20972,7 @@
         <v>2</v>
       </c>
       <c r="F54" s="59" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="G54" s="142" t="s">
         <v>35</v>
@@ -21050,7 +21051,7 @@
       <c r="BQ54" s="47"/>
       <c r="BR54" s="186"/>
     </row>
-    <row r="55" spans="1:70" s="87" customFormat="1" ht="41.4">
+    <row r="55" spans="1:70" s="87" customFormat="1" ht="38.25">
       <c r="A55" s="146" t="str">
         <f t="shared" si="63"/>
         <v>4.3</v>
@@ -21059,7 +21060,7 @@
         <v>76</v>
       </c>
       <c r="C55" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D55" s="58">
         <v>220501097</v>
@@ -21068,7 +21069,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="59" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="G55" s="142" t="s">
         <v>35</v>
@@ -21147,7 +21148,7 @@
       <c r="BQ55" s="47"/>
       <c r="BR55" s="186"/>
     </row>
-    <row r="56" spans="1:70" s="87" customFormat="1" ht="41.4">
+    <row r="56" spans="1:70" s="87" customFormat="1" ht="38.25">
       <c r="A56" s="146" t="str">
         <f t="shared" si="63"/>
         <v>4.4</v>
@@ -21156,7 +21157,7 @@
         <v>77</v>
       </c>
       <c r="C56" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D56" s="58">
         <v>220501097</v>
@@ -21165,7 +21166,7 @@
         <v>4</v>
       </c>
       <c r="F56" s="59" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="G56" s="142" t="s">
         <v>35</v>
@@ -21253,7 +21254,7 @@
         <v>79</v>
       </c>
       <c r="C57" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D57" s="58">
         <v>220501098</v>
@@ -21262,7 +21263,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="59" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="G57" s="142" t="s">
         <v>35</v>
@@ -21350,7 +21351,7 @@
         <v>80</v>
       </c>
       <c r="C58" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D58" s="58">
         <v>220501098</v>
@@ -21359,7 +21360,7 @@
         <v>2</v>
       </c>
       <c r="F58" s="59" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="G58" s="142" t="s">
         <v>35</v>
@@ -21447,7 +21448,7 @@
         <v>81</v>
       </c>
       <c r="C59" s="142" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D59" s="58">
         <v>220501098</v>
@@ -21456,7 +21457,7 @@
         <v>3</v>
       </c>
       <c r="F59" s="59" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G59" s="142" t="s">
         <v>35</v>
@@ -21611,12 +21612,6 @@
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A11:M59" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="22">
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="O8:U8"/>
-    <mergeCell ref="V8:AB8"/>
-    <mergeCell ref="AC8:AI8"/>
-    <mergeCell ref="AJ8:AP8"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="A1:BR1"/>
     <mergeCell ref="A2:BR2"/>
     <mergeCell ref="A3:BR3"/>
@@ -21633,6 +21628,12 @@
     <mergeCell ref="AC9:AI9"/>
     <mergeCell ref="AJ9:AP9"/>
     <mergeCell ref="AQ9:AW9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="O8:U8"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="AC8:AI8"/>
+    <mergeCell ref="AJ8:AP8"/>
+    <mergeCell ref="D8:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="L21:L22">
     <cfRule type="dataBar" priority="116">
@@ -21831,6 +21832,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50">
+    <cfRule type="dataBar" priority="71">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7F051754-87B9-4C18-8CD8-67421E498E01}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -21840,18 +21853,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{359FC257-C3D3-4BC8-9B18-A41F35E86C6A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="71">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7F051754-87B9-4C18-8CD8-67421E498E01}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21963,14 +21964,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:BR59">
-    <cfRule type="expression" dxfId="1" priority="327">
+    <cfRule type="expression" dxfId="1" priority="326">
+      <formula>AND($I12&lt;=O$10,ROUNDDOWN(($J12-$I12+1)*$L12,0)+$I12-1&gt;=O$10)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="327">
       <formula>AND(NOT(ISBLANK($I12)),$I12&lt;=O$10,$J12&gt;=O$10)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="326">
-      <formula>AND($I12&lt;=O$10,ROUNDDOWN(($J12-$I12+1)*$L12,0)+$I12-1&gt;=O$10)</formula>
-    </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" xWindow="1128" yWindow="374" count="1">
+  <dataValidations xWindow="1128" yWindow="374" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Enter the week number to display first in the Gantt Chart. The weeks are numbered starting from the week containing the Project Start Date." sqref="L8" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -21991,15 +21992,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>13</xdr:col>
-                    <xdr:colOff>99060</xdr:colOff>
+                    <xdr:colOff>95250</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>68580</xdr:rowOff>
+                    <xdr:rowOff>66675</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>31</xdr:col>
-                    <xdr:colOff>121920</xdr:colOff>
+                    <xdr:colOff>123825</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>68580</xdr:rowOff>
+                    <xdr:rowOff>66675</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -22223,7 +22224,7 @@
           <xm:sqref>L50 L47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{359FC257-C3D3-4BC8-9B18-A41F35E86C6A}">
+          <x14:cfRule type="dataBar" id="{7F051754-87B9-4C18-8CD8-67421E498E01}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -22235,7 +22236,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{7F051754-87B9-4C18-8CD8-67421E498E01}">
+          <x14:cfRule type="dataBar" id="{359FC257-C3D3-4BC8-9B18-A41F35E86C6A}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -22365,65 +22366,65 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="231"/>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-    </row>
-    <row r="2" spans="1:16" s="46" customFormat="1" ht="20.399999999999999">
-      <c r="A2" s="232" t="s">
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+    </row>
+    <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
+      <c r="A2" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
-    </row>
-    <row r="3" spans="1:16" s="46" customFormat="1" ht="20.399999999999999">
-      <c r="A3" s="232" t="s">
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+    </row>
+    <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
+      <c r="A3" s="237" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>
@@ -22443,7 +22444,7 @@
       <c r="O4" s="67"/>
       <c r="P4" s="67"/>
     </row>
-    <row r="5" spans="1:16" ht="14.4" thickTop="1"/>
+    <row r="5" spans="1:16" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
@@ -22465,65 +22466,65 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="231"/>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-    </row>
-    <row r="2" spans="1:16" s="46" customFormat="1" ht="20.399999999999999">
-      <c r="A2" s="232" t="s">
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+    </row>
+    <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
+      <c r="A2" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
-    </row>
-    <row r="3" spans="1:16" s="46" customFormat="1" ht="20.399999999999999">
-      <c r="A3" s="232" t="s">
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+    </row>
+    <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
+      <c r="A3" s="237" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>
@@ -22543,7 +22544,7 @@
       <c r="O4" s="67"/>
       <c r="P4" s="67"/>
     </row>
-    <row r="5" spans="1:16" ht="14.4" thickTop="1"/>
+    <row r="5" spans="1:16" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
@@ -22565,65 +22566,65 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="231"/>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-    </row>
-    <row r="2" spans="1:16" s="46" customFormat="1" ht="20.399999999999999">
-      <c r="A2" s="232" t="s">
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+    </row>
+    <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
+      <c r="A2" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
-    </row>
-    <row r="3" spans="1:16" s="46" customFormat="1" ht="20.399999999999999">
-      <c r="A3" s="232" t="s">
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+    </row>
+    <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
+      <c r="A3" s="237" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>
@@ -22643,7 +22644,7 @@
       <c r="O4" s="67"/>
       <c r="P4" s="67"/>
     </row>
-    <row r="5" spans="1:16" ht="14.4" thickTop="1"/>
+    <row r="5" spans="1:16" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
@@ -22665,65 +22666,65 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="5.0999999999999996" customHeight="1">
-      <c r="A1" s="231"/>
-      <c r="B1" s="231"/>
-      <c r="C1" s="231"/>
-      <c r="D1" s="231"/>
-      <c r="E1" s="231"/>
-      <c r="F1" s="231"/>
-      <c r="G1" s="231"/>
-      <c r="H1" s="231"/>
-      <c r="I1" s="231"/>
-      <c r="J1" s="231"/>
-      <c r="K1" s="231"/>
-      <c r="L1" s="231"/>
-      <c r="M1" s="231"/>
-    </row>
-    <row r="2" spans="1:16" s="46" customFormat="1" ht="20.399999999999999">
-      <c r="A2" s="232" t="s">
+      <c r="A1" s="236"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+    </row>
+    <row r="2" spans="1:16" s="46" customFormat="1" ht="20.25">
+      <c r="A2" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="232"/>
-      <c r="H2" s="232"/>
-      <c r="I2" s="232"/>
-      <c r="J2" s="232"/>
-      <c r="K2" s="232"/>
-      <c r="L2" s="232"/>
-      <c r="M2" s="232"/>
-      <c r="N2" s="232"/>
-      <c r="O2" s="232"/>
-      <c r="P2" s="232"/>
-    </row>
-    <row r="3" spans="1:16" s="46" customFormat="1" ht="20.399999999999999">
-      <c r="A3" s="232" t="s">
+      <c r="B2" s="237"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
+      <c r="H2" s="237"/>
+      <c r="I2" s="237"/>
+      <c r="J2" s="237"/>
+      <c r="K2" s="237"/>
+      <c r="L2" s="237"/>
+      <c r="M2" s="237"/>
+      <c r="N2" s="237"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="237"/>
+    </row>
+    <row r="3" spans="1:16" s="46" customFormat="1" ht="20.25">
+      <c r="A3" s="237" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
-      <c r="P3" s="232"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="237"/>
+      <c r="H3" s="237"/>
+      <c r="I3" s="237"/>
+      <c r="J3" s="237"/>
+      <c r="K3" s="237"/>
+      <c r="L3" s="237"/>
+      <c r="M3" s="237"/>
+      <c r="N3" s="237"/>
+      <c r="O3" s="237"/>
+      <c r="P3" s="237"/>
     </row>
     <row r="4" spans="1:16" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A4" s="67"/>
@@ -22743,7 +22744,7 @@
       <c r="O4" s="67"/>
       <c r="P4" s="67"/>
     </row>
-    <row r="5" spans="1:16" ht="14.4" thickTop="1"/>
+    <row r="5" spans="1:16" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:M1"/>
